--- a/output/concepts.world.xlsx
+++ b/output/concepts.world.xlsx
@@ -497,79 +497,79 @@
         </is>
       </c>
       <c r="B2">
-        <v>6665</v>
+        <v>7959</v>
       </c>
       <c r="C2">
-        <v>7078</v>
+        <v>8482</v>
       </c>
       <c r="D2">
-        <v>7648</v>
+        <v>9041</v>
       </c>
       <c r="E2">
-        <v>8401</v>
+        <v>9883</v>
       </c>
       <c r="F2">
-        <v>9419</v>
+        <v>10819</v>
       </c>
       <c r="G2">
-        <v>10633</v>
+        <v>12091</v>
       </c>
       <c r="H2">
-        <v>12009</v>
+        <v>13464</v>
       </c>
       <c r="I2">
-        <v>13057</v>
+        <v>14584</v>
       </c>
       <c r="J2">
-        <v>13309</v>
+        <v>14865</v>
       </c>
       <c r="K2">
-        <v>14720</v>
+        <v>16335</v>
       </c>
       <c r="L2">
-        <v>14989</v>
+        <v>16500</v>
       </c>
       <c r="M2">
-        <v>16147</v>
+        <v>17759</v>
       </c>
       <c r="N2">
-        <v>17046</v>
+        <v>18646</v>
       </c>
       <c r="O2">
-        <v>18100</v>
+        <v>19905</v>
       </c>
       <c r="P2">
-        <v>18548</v>
+        <v>20291</v>
       </c>
       <c r="Q2">
-        <v>18782</v>
+        <v>20632</v>
       </c>
       <c r="R2">
-        <v>18776</v>
+        <v>20406</v>
       </c>
       <c r="S2">
-        <v>19160</v>
+        <v>20888</v>
       </c>
       <c r="T2">
-        <v>18901</v>
+        <v>22356</v>
       </c>
       <c r="U2">
-        <v>5569</v>
+        <v>24926</v>
       </c>
       <c r="V2">
-        <v>24</v>
+        <v>27756</v>
       </c>
       <c r="W2">
-        <v>4</v>
+        <v>32815</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>34011</v>
       </c>
       <c r="Y2">
-        <v>5</v>
+        <v>25922</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3">
@@ -579,79 +579,79 @@
         </is>
       </c>
       <c r="B3">
-        <v>1321</v>
+        <v>1562</v>
       </c>
       <c r="C3">
-        <v>1642</v>
+        <v>1850</v>
       </c>
       <c r="D3">
-        <v>1644</v>
+        <v>1892</v>
       </c>
       <c r="E3">
-        <v>1922</v>
+        <v>2193</v>
       </c>
       <c r="F3">
-        <v>2252</v>
+        <v>2517</v>
       </c>
       <c r="G3">
-        <v>2475</v>
+        <v>2732</v>
       </c>
       <c r="H3">
-        <v>2891</v>
+        <v>3158</v>
       </c>
       <c r="I3">
-        <v>3292</v>
+        <v>3573</v>
       </c>
       <c r="J3">
-        <v>3584</v>
+        <v>3880</v>
       </c>
       <c r="K3">
-        <v>3808</v>
+        <v>4174</v>
       </c>
       <c r="L3">
-        <v>4143</v>
+        <v>4492</v>
       </c>
       <c r="M3">
-        <v>4611</v>
+        <v>5009</v>
       </c>
       <c r="N3">
-        <v>4800</v>
+        <v>5167</v>
       </c>
       <c r="O3">
-        <v>5500</v>
+        <v>5949</v>
       </c>
       <c r="P3">
-        <v>5731</v>
+        <v>6257</v>
       </c>
       <c r="Q3">
-        <v>6049</v>
+        <v>6563</v>
       </c>
       <c r="R3">
-        <v>6350</v>
+        <v>6849</v>
       </c>
       <c r="S3">
-        <v>6641</v>
+        <v>7204</v>
       </c>
       <c r="T3">
-        <v>6817</v>
+        <v>8190</v>
       </c>
       <c r="U3">
-        <v>2183</v>
+        <v>9575</v>
       </c>
       <c r="V3">
-        <v>6</v>
+        <v>11099</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>13970</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>15518</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>11591</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -661,79 +661,79 @@
         </is>
       </c>
       <c r="B4">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="C4">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="D4">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="E4">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="F4">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="G4">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="H4">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="I4">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="J4">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="K4">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="L4">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="M4">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="N4">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="O4">
-        <v>354</v>
+        <v>427</v>
       </c>
       <c r="P4">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="Q4">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="R4">
-        <v>342</v>
+        <v>409</v>
       </c>
       <c r="S4">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="T4">
-        <v>403</v>
+        <v>481</v>
       </c>
       <c r="U4">
-        <v>149</v>
+        <v>534</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -888,79 +888,79 @@
         </is>
       </c>
       <c r="B2">
-        <v>5599</v>
+        <v>6451</v>
       </c>
       <c r="C2">
-        <v>6004</v>
+        <v>6925</v>
       </c>
       <c r="D2">
-        <v>6553</v>
+        <v>7473</v>
       </c>
       <c r="E2">
-        <v>7265</v>
+        <v>8341</v>
       </c>
       <c r="F2">
-        <v>8330</v>
+        <v>9323</v>
       </c>
       <c r="G2">
-        <v>9424</v>
+        <v>10468</v>
       </c>
       <c r="H2">
-        <v>10833</v>
+        <v>11931</v>
       </c>
       <c r="I2">
-        <v>11953</v>
+        <v>13110</v>
       </c>
       <c r="J2">
-        <v>12333</v>
+        <v>13592</v>
       </c>
       <c r="K2">
-        <v>13758</v>
+        <v>15064</v>
       </c>
       <c r="L2">
-        <v>14132</v>
+        <v>15408</v>
       </c>
       <c r="M2">
-        <v>15251</v>
+        <v>16589</v>
       </c>
       <c r="N2">
-        <v>16122</v>
+        <v>17482</v>
       </c>
       <c r="O2">
-        <v>17222</v>
+        <v>18772</v>
       </c>
       <c r="P2">
-        <v>17673</v>
+        <v>19161</v>
       </c>
       <c r="Q2">
-        <v>17893</v>
+        <v>19527</v>
       </c>
       <c r="R2">
-        <v>18079</v>
+        <v>19571</v>
       </c>
       <c r="S2">
-        <v>18630</v>
+        <v>20288</v>
       </c>
       <c r="T2">
-        <v>18518</v>
+        <v>21906</v>
       </c>
       <c r="U2">
-        <v>5423</v>
+        <v>24605</v>
       </c>
       <c r="V2">
-        <v>24</v>
+        <v>27477</v>
       </c>
       <c r="W2">
-        <v>4</v>
+        <v>32509</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>33779</v>
       </c>
       <c r="Y2">
-        <v>5</v>
+        <v>25782</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3">
@@ -970,79 +970,79 @@
         </is>
       </c>
       <c r="B3">
-        <v>1109</v>
+        <v>1287</v>
       </c>
       <c r="C3">
-        <v>1390</v>
+        <v>1534</v>
       </c>
       <c r="D3">
-        <v>1394</v>
+        <v>1581</v>
       </c>
       <c r="E3">
-        <v>1677</v>
+        <v>1878</v>
       </c>
       <c r="F3">
-        <v>1997</v>
+        <v>2205</v>
       </c>
       <c r="G3">
-        <v>2221</v>
+        <v>2415</v>
       </c>
       <c r="H3">
-        <v>2630</v>
+        <v>2841</v>
       </c>
       <c r="I3">
-        <v>3012</v>
+        <v>3232</v>
       </c>
       <c r="J3">
-        <v>3298</v>
+        <v>3547</v>
       </c>
       <c r="K3">
-        <v>3571</v>
+        <v>3883</v>
       </c>
       <c r="L3">
-        <v>3887</v>
+        <v>4198</v>
       </c>
       <c r="M3">
-        <v>4380</v>
+        <v>4730</v>
       </c>
       <c r="N3">
-        <v>4532</v>
+        <v>4852</v>
       </c>
       <c r="O3">
-        <v>5204</v>
+        <v>5607</v>
       </c>
       <c r="P3">
-        <v>5495</v>
+        <v>5964</v>
       </c>
       <c r="Q3">
-        <v>5772</v>
+        <v>6232</v>
       </c>
       <c r="R3">
-        <v>6117</v>
+        <v>6576</v>
       </c>
       <c r="S3">
-        <v>6481</v>
+        <v>7023</v>
       </c>
       <c r="T3">
-        <v>6674</v>
+        <v>8031</v>
       </c>
       <c r="U3">
-        <v>2136</v>
+        <v>9439</v>
       </c>
       <c r="V3">
-        <v>6</v>
+        <v>11003</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>13863</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>15446</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>11545</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -1052,79 +1052,79 @@
         </is>
       </c>
       <c r="B4">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C4">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D4">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="E4">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="F4">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="G4">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="H4">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="I4">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="J4">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="K4">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="L4">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="M4">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="N4">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="O4">
-        <v>322</v>
+        <v>389</v>
       </c>
       <c r="P4">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="Q4">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="R4">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="S4">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="T4">
-        <v>370</v>
+        <v>445</v>
       </c>
       <c r="U4">
-        <v>147</v>
+        <v>521</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
